--- a/src/test/resources/recruitmentsourcing.xlsx
+++ b/src/test/resources/recruitmentsourcing.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navee\IdeaProjects\Apollo-ta\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium-intellij\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B176380C-85F9-4064-BA3B-858EA7FEF67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="3420" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="3420" windowWidth="15375" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="sourcing" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Source type</t>
   </si>
@@ -52,13 +51,7 @@
     <t>Part hiring effort</t>
   </si>
   <si>
-    <t>direct walkins</t>
-  </si>
-  <si>
     <t>College Placementss</t>
-  </si>
-  <si>
-    <t>social media</t>
   </si>
   <si>
     <t>search Name</t>
@@ -67,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,11 +386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,46 +454,6 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>0.2</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="E3">
-        <v>0.6</v>
-      </c>
-      <c r="F3">
-        <v>0.4</v>
-      </c>
-      <c r="G3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -508,11 +461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49432DE9-0C66-4EBF-BAA5-AC9816BFAECA}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,12 +503,12 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -576,52 +529,6 @@
         <v>0.1</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.2</v>
-      </c>
-      <c r="E3">
-        <v>0.6</v>
-      </c>
-      <c r="F3">
-        <v>0.4</v>
-      </c>
-      <c r="G3">
-        <v>0.2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
         <v>1</v>
       </c>
     </row>
